--- a/doc/cofigurazione_sistema.xlsx
+++ b/doc/cofigurazione_sistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paolo\Documents\pa\workspace\th-prj-kubernates\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE08127-B20B-43A5-A6B0-46DC76BAC1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ADFDD7-8637-4E23-A4F2-F7EDE9C590B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A3865815-DA6B-4D83-B8DE-2E81DAB642E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>INDIRIZZO</t>
   </si>
@@ -112,6 +112,30 @@
   </si>
   <si>
     <t>480Mi</t>
+  </si>
+  <si>
+    <t>ms-runnings</t>
+  </si>
+  <si>
+    <t>2000Mi</t>
+  </si>
+  <si>
+    <t>320m</t>
+  </si>
+  <si>
+    <t>2100Mi</t>
+  </si>
+  <si>
+    <t>330m</t>
+  </si>
+  <si>
+    <t>ms-messaging</t>
+  </si>
+  <si>
+    <t>130m</t>
+  </si>
+  <si>
+    <t>140m</t>
   </si>
 </sst>
 </file>
@@ -164,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -180,6 +204,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -495,16 +525,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960FDA96-E5A1-4BB6-B08A-5C15DA0B0993}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.26953125" bestFit="1" customWidth="1"/>
@@ -650,17 +680,56 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7">
+        <v>35188145113</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5073</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5063</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E10" s="4"/>
       <c r="G10" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
